--- a/gap20命令接口文档.xlsx
+++ b/gap20命令接口文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19455" windowHeight="8970"/>
+    <workbookView windowWidth="19335" windowHeight="8970"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120">
   <si>
     <t>功能</t>
   </si>
@@ -43,11 +43,12 @@
     <t>IP-MAC规则查看</t>
   </si>
   <si>
-    <t>ipmac view</t>
+    <t>ipmac view pgindex 1 pgsize 20</t>
   </si>
   <si>
     <t>d1 1.1.1.1  03:66:fe:57:b3:90 b 1
-d2 2.2.2.2  05:66:fe:57:b3:87 w 0</t>
+d2 2.2.2.2  05:66:fe:57:b3:87 w 0
+[pageindex=1,pagesize=20,totalline=2]</t>
   </si>
   <si>
     <t>IP-MAC规则修改</t>
@@ -65,23 +66,24 @@
     <t>用户规则新建</t>
   </si>
   <si>
-    <t>user add username u1 groupname g1 ip 2.2.2.2 enable 1 type 1</t>
+    <t>user add username u1 groupname g1 ip 2.2.2.2 mac 11:22:33:44:55:66 enable 1 type 1</t>
   </si>
   <si>
     <t>用户规则查看</t>
   </si>
   <si>
-    <t>user view</t>
-  </si>
-  <si>
-    <t>u1  g1  1.1.1.1  0  0
-u2  g1  2.2.2.2  0  0</t>
+    <t>user view pgindex 1 pgsize 20</t>
+  </si>
+  <si>
+    <t>u1  g1  1.1.1.1  11:22:33:44:55:66  0  0
+u2  g1  2.2.2.2  11:22:33:44:55:66  0  0
+[pageindex=1,pagesize=20,totalline=2]</t>
   </si>
   <si>
     <t>用户规则修改</t>
   </si>
   <si>
-    <t>user edit username u1 groupname g1 ip 3.3.3.3 enable 1 type 1</t>
+    <t>user edit username u1 groupname g1 ip 3.3.3.3 mac 11:22:33:44:55:66 enable 1 type 1</t>
   </si>
   <si>
     <t>用户规则删除</t>
@@ -102,10 +104,13 @@
     <t>group add groupname g2</t>
   </si>
   <si>
+    <t>acl del index g2_HTTP</t>
+  </si>
+  <si>
     <t>访问规则新建</t>
   </si>
   <si>
-    <t>acl add index 100 proto HTTP access 1 dir 1 rule_mod 0 rule_servers 3.3.3.3</t>
+    <t>acl add index g2_HTTP proto HTTP access 1 dir 1 rule_mod 0 rule_servers 3.3.3.3</t>
   </si>
   <si>
     <t>访问规则查看</t>
@@ -114,31 +119,32 @@
     <t>acl view</t>
   </si>
   <si>
-    <t>100  HTTP  1  1  0  3.3.3.3,</t>
+    <t>g2_HTTP  HTTP  1  1  0  3.3.3.3,</t>
   </si>
   <si>
     <t>访问规则修改</t>
   </si>
   <si>
-    <t>acl edit index 100 access 0 dir 0 rule_mod 0 rule_servers 4.4.4.4</t>
+    <t>acl edit index g2_HTTP access 0 dir 0 rule_mod 0 rule_servers 4.4.4.4</t>
   </si>
   <si>
     <t>用户组绑定访问规则</t>
   </si>
   <si>
-    <t>group g2 bind acl 100</t>
+    <t>group g2 bind acl g2_HTTP</t>
   </si>
   <si>
     <t>用户组规则查看</t>
   </si>
   <si>
-    <t>group view</t>
+    <t>group view pgindex 1 pgsize 20</t>
   </si>
   <si>
     <t>g2
-102  TDCS  0  0  04.4.4.4,
-101  FTP  0  0  04.4.4.4,
-100  HTTP  0  0  04.4.4.4,</t>
+g2_TDCS  TDCS  0  0  0 4.4.4.4
+g2_FTP  FTP  0  0  0 4.4.4.4
+g2_HTTP HTTP  0  0  0 4.4.4.4
+[pageindex=1,pagesize=20,totalline=1]</t>
   </si>
   <si>
     <t>用户组规则重命名</t>
@@ -192,11 +198,12 @@
     <t>IP组查看</t>
   </si>
   <si>
-    <t>ipgroup view</t>
+    <t>ipgroup view pgindex 1 pgsize 20 (pgindex=0表示查询所有记录)</t>
   </si>
   <si>
     <t>ipgroup1 1.1.1.1;2.2.2.2/24;3.3.3.3-3.3.3.40
-ipgroup2 5.5.5.5;6.6.6.6-6.6.6.80</t>
+ipgroup2 5.5.5.5;6.6.6.6-6.6.6.80
+[pageindex=1,pagesize=20,totalline=2]</t>
   </si>
   <si>
     <t>IP组修改</t>
@@ -220,11 +227,12 @@
     <t>路由查看</t>
   </si>
   <si>
-    <t>route view</t>
+    <t>route view pgindex 1 pgsize 20</t>
   </si>
   <si>
     <t>tm2 HTTP,FTP  ipgroup1 8000 ipgroup2 0 P0 P1 0
-tt HTTP  ipgroup3 8000 ipgroup4 8080 P0 P0 1111</t>
+tt HTTP  ipgroup3 8000 ipgroup4 8080 P0 P0 1111
+[pageindex=1,pagesize=20,totalline=2]</t>
   </si>
   <si>
     <t>路由修改</t>
@@ -279,7 +287,7 @@
   </si>
   <si>
     <t>仲裁机：
-Time=2016/08/30-18:16:23
+Time=2016-08-30 18:16:23
 Runtime=0Day0Hour5Min20Sec
 Ha-state=oos
 Service-state=normal
@@ -339,7 +347,7 @@
     <t>内端机</t>
   </si>
   <si>
-    <t>show login_log time 2016-09-07/00:00:00 user * ip 0.0.0.0 state * content * pgindex 1 pgsize 20</t>
+    <t>show login_log stime 2016-09-07/00:00:00 etime 2016-09-10/00:00:00 user * ip 0.0.0.0 state * content * pgindex 1 pgsize 20</t>
   </si>
   <si>
     <t>1|2016-09-09 10:55:47|1.1.1.1|aaa|abc|bbbbb
@@ -349,7 +357,7 @@
     <t>操作日志查看</t>
   </si>
   <si>
-    <t>show op_log time 2016-09-07/00:00:00 user * ip 0.0.0.0 op * type * pgindex 1 pgsize 20</t>
+    <t>show op_log stime 2016-09-07/00:00:00 etime 2016-09-13/00:00:00 user * ip 0.0.0.0 op * type * pgindex 1 pgsize 20</t>
   </si>
   <si>
     <t>1|2016-09-12 13:48:45|1.1.1.1|aaa|abc|bbbbb
@@ -359,7 +367,7 @@
     <t>系统日志查看</t>
   </si>
   <si>
-    <t>show sys_log time 2016-09-07/00:00:00 module * level * content * pgindex 1 pgsize 20</t>
+    <t>show sys_log stime 2016-09-07/00:00:00 etime 2016-09-13/00:00:00 module * level * content * pgindex 1 pgsize 20</t>
   </si>
   <si>
     <t>1|2016-09-09 11:21:07|a|1|bbbbb
@@ -370,7 +378,7 @@
     <t>审计日志查看</t>
   </si>
   <si>
-    <t>show audit_log time 2016-09-07/00:00:00 user * proto * url * content * pgindex 1 pgsize 20</t>
+    <t>show audit_log stime 2016-09-07/00:00:00 etime 2016-09-13/00:00:00 user * proto * url * content * pgindex 1 pgsize 20</t>
   </si>
   <si>
     <t>1|2016-09-12 13:51:54|a|HTTP|www.qq.com|bbbbb
@@ -380,7 +388,7 @@
     <t>安全事件日志查看</t>
   </si>
   <si>
-    <t>show sec_event_log sip 0.0.0.0 dip 0.0.0.0 proto * stime 2016-08-01/00:00:00 etime 2016-09-02/00:00:00 pgindex 1 pgsize 20</t>
+    <t>show sec_event_log sip 0.0.0.0 dip 0.0.0.0 proto * stime 2016-08-01/00:00:00 etime 2016-09-13/00:00:00 pgindex 1 pgsize 20</t>
   </si>
   <si>
     <t>1|2016-09-12 14:24:15|1.1.1.1|2.2.2.2|aaa|HTTP|3|1|helloworld
@@ -390,7 +398,7 @@
     <t>系统事件日志查看</t>
   </si>
   <si>
-    <t>show sys_event_log stime 2016-08-01/00:00:00 etime 2016-09-12/23:23:23 content * pgindex 1 pgsize 20</t>
+    <t>show sys_event_log stime 2016-08-01/00:00:00 etime 2016-09-13/23:23:23 content * pgindex 1 pgsize 20</t>
   </si>
   <si>
     <t>1|2016-09-09 11:22:29|3|1|helloworld
@@ -405,6 +413,52 @@
   </si>
   <si>
     <t>[pageindex=1,pagesize=20,totalline=0]</t>
+  </si>
+  <si>
+    <t>查看网卡总流量（历史数据）</t>
+  </si>
+  <si>
+    <t>show traffic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1475083080 1429.00  166.00   
+1475083140 575.00  287.00   
+1475083200 391.00   86.00   
+1475083260 413.00   86.00   
+1475083320 496.00  253.00   
+1475083380 511.00  210.00   
+1475083440 589.00  129.00   
+1475083500 401.00   86.00   
+1475083560 507.00   86.00   
+1475083620 420.00   86.00 </t>
+  </si>
+  <si>
+    <t>查看机器的消息</t>
+  </si>
+  <si>
+    <t>show machinfo</t>
+  </si>
+  <si>
+    <t>devNo=KED-U1200
+devType=inner
+SN=
+version=APP-1.0.4-SZ-161300-C00.20e1fdc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">查看指定事件表的记录数目
+</t>
+  </si>
+  <si>
+    <t>show_event_num table sys_event_table</t>
+  </si>
+  <si>
+    <t>total_num=3,today_num=3</t>
+  </si>
+  <si>
+    <t>删除指定日志表的记录</t>
+  </si>
+  <si>
+    <t>delete_log table sys_event</t>
   </si>
 </sst>
 </file>
@@ -563,9 +617,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -578,14 +631,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="42">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -612,37 +666,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.25"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,19 +834,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -678,157 +852,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -960,10 +984,10 @@
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -972,16 +996,16 @@
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -993,10 +1017,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1017,92 +1041,92 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1118,9 +1142,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1132,25 +1153,17 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1497,17 +1510,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A18" sqref="A3:A18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="2" width="19.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="115.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="74.875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="16.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="91.4666666666667" style="2" customWidth="1"/>
+    <col min="4" max="4" width="53.5333333333333" style="3" customWidth="1"/>
     <col min="5" max="5" width="36.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1529,27 +1543,27 @@
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" ht="36" customHeight="1" spans="1:4">
+      <c r="D2" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" ht="44.25" customHeight="1" spans="1:4">
       <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1557,13 +1571,13 @@
       <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1571,539 +1585,603 @@
       <c r="A5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" ht="26.25" customHeight="1" spans="1:4">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" ht="33" customHeight="1" spans="1:4">
-      <c r="A7" s="13" t="s">
+      <c r="D6" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" ht="47.25" customHeight="1" spans="1:4">
+      <c r="A7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" ht="21.75" customHeight="1" spans="1:4">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" ht="21.75" customHeight="1" spans="1:4">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" ht="23.25" customHeight="1" spans="1:4">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" ht="24" customHeight="1" spans="1:4">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" ht="21" customHeight="1" spans="1:4">
+      <c r="D11" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" ht="24" customHeight="1" spans="1:4">
       <c r="A12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="D12" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" ht="21" customHeight="1" spans="1:4">
+      <c r="A13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" ht="23.25" customHeight="1" spans="1:4">
-      <c r="A13" s="7" t="s">
+      <c r="C13" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="D13" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" ht="23.25" customHeight="1" spans="1:4">
+      <c r="A14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="10" t="s">
+      <c r="C14" s="10" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="14" ht="21" customHeight="1" spans="1:4">
-      <c r="A14" s="7" t="s">
+      <c r="D14" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="8" t="s">
+    </row>
+    <row r="15" ht="21" customHeight="1" spans="1:4">
+      <c r="A15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" ht="21" customHeight="1" spans="1:4">
-      <c r="A15" s="14" t="s">
+      <c r="C15" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="D15" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" ht="21" customHeight="1" spans="1:4">
+      <c r="A16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" ht="71.25" customHeight="1" spans="1:4">
-      <c r="A16" s="14" t="s">
+      <c r="C16" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="D16" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" ht="71.25" customHeight="1" spans="1:4">
+      <c r="A17" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="12" t="s">
+      <c r="C17" s="10" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="17" ht="27.75" customHeight="1" spans="1:4">
-      <c r="A17" s="14" t="s">
+      <c r="D17" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="8" t="s">
+    </row>
+    <row r="18" ht="27.75" customHeight="1" spans="1:4">
+      <c r="A18" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" ht="22.5" customHeight="1" spans="1:4">
-      <c r="A18" s="14" t="s">
+      <c r="C18" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="D18" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" ht="22.5" customHeight="1" spans="1:4">
+      <c r="A19" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" ht="26.25" customHeight="1" spans="1:4">
-      <c r="A19" s="15" t="s">
+      <c r="C19" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="D19" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" ht="26.25" customHeight="1" spans="1:4">
+      <c r="A20" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="B20" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" ht="27.75" customHeight="1" spans="1:4">
-      <c r="A20" s="15" t="s">
+      <c r="C20" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="11" t="s">
+      <c r="D20" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" ht="27.75" customHeight="1" spans="1:4">
+      <c r="A21" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="B21" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="21" ht="28.5" customHeight="1" spans="1:4">
-      <c r="A21" s="15" t="s">
+      <c r="D21" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="11" t="s">
+    </row>
+    <row r="22" ht="28.5" customHeight="1" spans="1:4">
+      <c r="A22" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" ht="26.25" customHeight="1" spans="1:4">
-      <c r="A22" s="15" t="s">
+      <c r="B22" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="11" t="s">
+      <c r="D22" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" ht="26.25" customHeight="1" spans="1:4">
+      <c r="A23" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" ht="26.25" customHeight="1" spans="1:4">
-      <c r="A23" s="16" t="s">
+      <c r="B23" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="11" t="s">
+      <c r="D23" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" ht="26.25" customHeight="1" spans="1:4">
+      <c r="A24" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" ht="26.25" customHeight="1" spans="1:4">
-      <c r="A24" s="16" t="s">
+      <c r="B24" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="11" t="s">
+      <c r="D24" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" ht="45.75" customHeight="1" spans="1:4">
+      <c r="A25" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="B25" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="10" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="25" ht="26.25" customHeight="1" spans="1:4">
-      <c r="A25" s="16" t="s">
+      <c r="D25" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="11" t="s">
+    </row>
+    <row r="26" ht="26.25" customHeight="1" spans="1:4">
+      <c r="A26" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" ht="26.25" customHeight="1" spans="1:4">
-      <c r="A26" s="16" t="s">
+      <c r="B26" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="11" t="s">
+      <c r="D26" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" ht="26.25" customHeight="1" spans="1:4">
+      <c r="A27" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" ht="25.5" customHeight="1" spans="1:4">
-      <c r="A27" s="17" t="s">
+      <c r="B27" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B27" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="11" t="s">
+      <c r="D27" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" ht="25.5" customHeight="1" spans="1:4">
+      <c r="A28" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D27" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" ht="29.25" customHeight="1" spans="1:4">
-      <c r="A28" s="17" t="s">
+      <c r="B28" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="11" t="s">
+      <c r="D28" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" ht="44.25" customHeight="1" spans="1:4">
+      <c r="A29" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="B29" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="10" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="29" ht="27.75" customHeight="1" spans="1:4">
-      <c r="A29" s="17" t="s">
+      <c r="D29" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="11" t="s">
+    </row>
+    <row r="30" ht="27.75" customHeight="1" spans="1:4">
+      <c r="A30" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D29" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" ht="23.25" customHeight="1" spans="1:4">
-      <c r="A30" s="17" t="s">
+      <c r="B30" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B30" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="11" t="s">
+      <c r="D30" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" ht="23.25" customHeight="1" spans="1:4">
+      <c r="A31" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D30" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" ht="24" customHeight="1" spans="1:4">
-      <c r="A31" s="8" t="s">
+      <c r="B31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="D31" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" ht="24" customHeight="1" spans="1:4">
+      <c r="A32" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="B32" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D31" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" ht="24.75" customHeight="1" spans="1:4">
-      <c r="A32" s="8" t="s">
+      <c r="C32" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B32" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C32" s="11" t="s">
+      <c r="D32" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1" spans="1:4">
+      <c r="A33" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="B33" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="10" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="33" ht="23.25" customHeight="1" spans="1:4">
-      <c r="A33" s="8" t="s">
+      <c r="D33" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B33" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C33" s="11" t="s">
+    </row>
+    <row r="34" ht="23.25" customHeight="1" spans="1:4">
+      <c r="A34" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D33" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" ht="21.75" customHeight="1" spans="1:4">
-      <c r="A34" s="8" t="s">
+      <c r="B34" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B34" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C34" s="11" t="s">
+      <c r="D34" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" ht="21.75" customHeight="1" spans="1:4">
+      <c r="A35" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="B35" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" s="10" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="35" ht="332.25" customHeight="1" spans="1:4">
-      <c r="A35" s="8" t="s">
+      <c r="D35" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C35" s="18" t="s">
+    </row>
+    <row r="36" ht="332.25" customHeight="1" spans="1:4">
+      <c r="A36" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D35" s="19" t="s">
+      <c r="B36" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="14" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="36" ht="61.5" customHeight="1" spans="1:4">
-      <c r="A36" s="8" t="s">
+      <c r="D36" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="B36" s="8" t="s">
+    </row>
+    <row r="37" ht="61.5" customHeight="1" spans="1:4">
+      <c r="A37" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="B37" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="C37" s="10" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="37" ht="45" customHeight="1" spans="1:4">
-      <c r="A37" s="8" t="s">
+      <c r="D37" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="B37" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C37" s="11" t="s">
+    </row>
+    <row r="38" ht="45" customHeight="1" spans="1:4">
+      <c r="A38" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D37" s="12" t="s">
+      <c r="B38" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" s="10" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="38" ht="55.5" customHeight="1" spans="1:4">
-      <c r="A38" s="8" t="s">
+      <c r="D38" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="B38" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C38" s="11" t="s">
+    </row>
+    <row r="39" ht="55.5" customHeight="1" spans="1:4">
+      <c r="A39" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="D38" s="12" t="s">
+      <c r="B39" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" s="10" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="39" ht="42" customHeight="1" spans="1:4">
-      <c r="A39" s="8" t="s">
+      <c r="D39" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="B39" s="8" t="s">
+    </row>
+    <row r="40" ht="42" customHeight="1" spans="1:4">
+      <c r="A40" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B40" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C39" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="D39" s="12" t="s">
+      <c r="C40" s="10" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="40" ht="39.75" customHeight="1" spans="1:4">
-      <c r="A40" s="8" t="s">
+      <c r="D40" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B40" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C40" s="11" t="s">
+    </row>
+    <row r="41" ht="39.75" customHeight="1" spans="1:4">
+      <c r="A41" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D40" s="12" t="s">
+      <c r="B41" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41" s="10" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="41" ht="47.25" customHeight="1" spans="1:4">
-      <c r="A41" s="8" t="s">
+      <c r="D41" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="B41" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C41" s="11" t="s">
+    </row>
+    <row r="42" ht="47.25" customHeight="1" spans="1:4">
+      <c r="A42" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D41" s="12" t="s">
+      <c r="B42" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42" s="10" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="42" ht="69" customHeight="1" spans="1:4">
-      <c r="A42" s="8" t="s">
+      <c r="D42" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="B42" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C42" s="11" t="s">
+    </row>
+    <row r="43" ht="69" customHeight="1" spans="1:4">
+      <c r="A43" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D42" s="12" t="s">
+      <c r="B43" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="10" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="10"/>
+      <c r="D43" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="44" ht="142.5" customHeight="1" spans="1:4">
+      <c r="A44" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="45" ht="64.5" customHeight="1" spans="1:4">
+      <c r="A45" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="46" ht="53.25" customHeight="1" spans="1:4">
+      <c r="A46" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="47" ht="32.25" customHeight="1" spans="1:4">
+      <c r="A47" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
